--- a/_data/WePlayData/CleanedWPCIncomeandrequests.xlsx
+++ b/_data/WePlayData/CleanedWPCIncomeandrequests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renarepenning/Desktop/School/weplaynoladata/_data/WePlayData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA059B53-44F0-2948-8ED4-3DB9C048518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3DB63A-DC13-D740-A053-77DB6BBFFC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{F36D22DA-07EA-4A7F-96B7-A98250C78B6F}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Between $75,000 and $99,999</t>
   </si>
   <si>
-    <t>Avg Income</t>
-  </si>
-  <si>
     <t>Stress relief</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Information about sleeping</t>
+  </si>
+  <si>
+    <t>AvgIncome</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J122" sqref="J122"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -481,37 +481,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -519,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -530,16 +530,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -552,28 +552,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -586,16 +586,16 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -603,10 +603,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -614,22 +614,22 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -637,16 +637,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -654,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -691,19 +691,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -711,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -752,10 +752,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -763,13 +763,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -783,34 +783,34 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -818,18 +818,18 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -852,21 +852,21 @@
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -882,7 +882,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -891,24 +891,24 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -917,16 +917,16 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="3"/>
     </row>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -988,17 +988,17 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K34" s="3"/>
     </row>
@@ -1023,20 +1023,20 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1085,7 +1085,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K39" s="3"/>
     </row>
@@ -1154,24 +1154,24 @@
         <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1180,10 +1180,10 @@
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1191,10 +1191,10 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1203,27 +1203,27 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1248,11 +1248,11 @@
         <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1260,7 +1260,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1269,34 +1269,34 @@
         <v>5</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -1320,16 +1320,16 @@
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -1370,25 +1370,25 @@
         <v>6</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1397,24 +1397,24 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -1422,30 +1422,30 @@
         <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1463,10 +1463,10 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1484,10 +1484,10 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -1510,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -1535,21 +1535,21 @@
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -1583,7 +1583,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K63" s="3"/>
     </row>
@@ -1610,16 +1610,16 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K65" s="3"/>
     </row>
@@ -1628,23 +1628,23 @@
         <v>6</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -1668,26 +1668,26 @@
         <v>6</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -1698,16 +1698,16 @@
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K69" s="3"/>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -1735,19 +1735,19 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71" s="3"/>
     </row>
@@ -1756,28 +1756,28 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -1788,18 +1788,18 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K73" s="3"/>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -1826,23 +1826,23 @@
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -1852,22 +1852,22 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -1922,18 +1922,18 @@
         <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -1958,18 +1958,18 @@
         <v>2</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -1997,11 +1997,11 @@
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2030,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2040,7 +2040,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K86" s="3"/>
     </row>
@@ -2049,21 +2049,21 @@
         <v>3</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K87" s="3"/>
     </row>
@@ -2080,7 +2080,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K88" s="3"/>
     </row>
@@ -2105,18 +2105,18 @@
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K90" s="3"/>
     </row>
@@ -2141,14 +2141,14 @@
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -2159,21 +2159,21 @@
         <v>4</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K93" s="3"/>
     </row>
@@ -2197,19 +2197,19 @@
         <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K95" s="3"/>
     </row>
@@ -2219,10 +2219,10 @@
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -2231,7 +2231,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -2248,11 +2248,11 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2336,7 +2336,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K102" s="3"/>
     </row>
@@ -2361,26 +2361,26 @@
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K104" s="3"/>
     </row>
@@ -2391,20 +2391,20 @@
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -2412,19 +2412,19 @@
         <v>3</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -2459,7 +2459,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -2485,21 +2485,21 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -2507,22 +2507,22 @@
         <v>4</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -2545,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -2557,10 +2557,10 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -2571,18 +2571,18 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G114" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K114" s="3"/>
     </row>
@@ -2606,25 +2606,25 @@
         <v>3</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K116" s="3"/>
     </row>
@@ -2649,11 +2649,11 @@
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -2667,26 +2667,26 @@
         <v>5</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -2694,14 +2694,14 @@
         <v>0</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -2729,7 +2729,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K121" s="3"/>
     </row>
@@ -2738,25 +2738,25 @@
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K122" s="3"/>
     </row>
@@ -2766,11 +2766,11 @@
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -2778,7 +2778,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -2786,22 +2786,22 @@
         <v>4</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -2811,13 +2811,13 @@
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -2830,20 +2830,20 @@
         <v>0</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -2851,28 +2851,28 @@
         <v>3</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -2880,34 +2880,34 @@
         <v>4</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I128" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J128" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -2917,26 +2917,26 @@
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -2959,10 +2959,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -2983,12 +2983,12 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K132" s="3"/>
     </row>
@@ -3002,14 +3002,14 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K133" s="3"/>
     </row>
@@ -3020,10 +3020,10 @@
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3039,19 +3039,19 @@
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K135" s="3"/>
     </row>
@@ -3060,26 +3060,26 @@
         <v>2</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -3087,10 +3087,10 @@
         <v>6</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -3123,21 +3123,21 @@
         <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K139" s="3"/>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -3156,7 +3156,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K140" s="3"/>
     </row>
@@ -3165,16 +3165,16 @@
         <v>6</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -3195,7 +3195,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -3211,10 +3211,10 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -3230,10 +3230,10 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -3241,24 +3241,24 @@
         <v>4</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -3299,7 +3299,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
